--- a/Temperature.xlsx
+++ b/Temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.souza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF880E5-7D7C-4942-9FCC-D78D17E5DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E821F89-5345-4E41-B3B9-9823435F77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1AAD3A7-3575-194F-845B-C88420E1508E}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>/ T</t>
   </si>
@@ -280,13 +280,16 @@
   </si>
   <si>
     <t>Temperature | AI by Hand  ✍️ © 2024 Tom Yeh</t>
+  </si>
+  <si>
+    <t>Transformer: Softmax, Temperatura e Random Sampling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +368,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -425,12 +436,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -477,8 +489,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E9D8ABD8-FE91-FC43-918F-91464312C62A}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{03B9242F-F87F-194D-96CE-9326E8281368}"/>
@@ -942,7 +956,7 @@
   <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -973,7 +987,9 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="J1" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
@@ -1586,8 +1602,11 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" display="https://aasouzaconsult.github.io/engenharia_prompt/transformer_softmax_temperatura_random.html" xr:uid="{4CCF69B4-735B-40A0-9953-5BAF39C697CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1623,7 +1642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44435E-7D22-2B45-95ED-2EAC06554329}">
   <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1654,7 +1675,9 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="K1" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
@@ -3076,6 +3099,9 @@
       <formula>LEN(TRIM(S9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="https://aasouzaconsult.github.io/engenharia_prompt/transformer_softmax_temperatura_random.html" xr:uid="{62F225CC-16ED-4F22-B1BD-7EFDD5868A68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
